--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Plg-F2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Plg-F2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,10 +540,10 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.024527</v>
+        <v>0.0345785</v>
       </c>
       <c r="H2">
-        <v>0.049054</v>
+        <v>0.069157</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.275247666666667</v>
+        <v>8.961497999999999</v>
       </c>
       <c r="N2">
-        <v>24.825743</v>
+        <v>26.884494</v>
       </c>
       <c r="O2">
-        <v>0.1035475654300768</v>
+        <v>0.1368263930819497</v>
       </c>
       <c r="P2">
-        <v>0.1152196269592993</v>
+        <v>0.1434363050389826</v>
       </c>
       <c r="Q2">
-        <v>0.2029669995203333</v>
+        <v>0.309875158593</v>
       </c>
       <c r="R2">
-        <v>1.217801997122</v>
+        <v>1.859250951558</v>
       </c>
       <c r="S2">
-        <v>0.1035475654300768</v>
+        <v>0.1368263930819497</v>
       </c>
       <c r="T2">
-        <v>0.1152196269592993</v>
+        <v>0.1434363050389826</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +602,10 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.024527</v>
+        <v>0.0345785</v>
       </c>
       <c r="H3">
-        <v>0.049054</v>
+        <v>0.069157</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +626,22 @@
         <v>142.063716</v>
       </c>
       <c r="O3">
-        <v>0.5925442766305059</v>
+        <v>0.7230214505096683</v>
       </c>
       <c r="P3">
-        <v>0.6593368972671567</v>
+        <v>0.7579497126911668</v>
       </c>
       <c r="Q3">
-        <v>1.161465587444</v>
+        <v>1.637450067902</v>
       </c>
       <c r="R3">
-        <v>6.968793524664</v>
+        <v>9.824700407411999</v>
       </c>
       <c r="S3">
-        <v>0.5925442766305059</v>
+        <v>0.7230214505096683</v>
       </c>
       <c r="T3">
-        <v>0.6593368972671567</v>
+        <v>0.7579497126911668</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +655,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,10 +664,10 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.024527</v>
+        <v>0.0345785</v>
       </c>
       <c r="H4">
-        <v>0.049054</v>
+        <v>0.069157</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +676,158 @@
         <v>1</v>
       </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.110461</v>
+      </c>
+      <c r="N4">
+        <v>0.331383</v>
+      </c>
+      <c r="O4">
+        <v>0.00168654617857698</v>
+      </c>
+      <c r="P4">
+        <v>0.00176802111554464</v>
+      </c>
+      <c r="Q4">
+        <v>0.0038195756885</v>
+      </c>
+      <c r="R4">
+        <v>0.022917454131</v>
+      </c>
+      <c r="S4">
+        <v>0.00168654617857698</v>
+      </c>
+      <c r="T4">
+        <v>0.00176802111554464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.0345785</v>
+      </c>
+      <c r="H5">
+        <v>0.069157</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>24.2875365</v>
-      </c>
-      <c r="N4">
-        <v>48.575073</v>
-      </c>
-      <c r="O4">
-        <v>0.3039081579394173</v>
-      </c>
-      <c r="P4">
-        <v>0.225443475773544</v>
-      </c>
-      <c r="Q4">
-        <v>0.5957004077354999</v>
-      </c>
-      <c r="R4">
-        <v>2.382801630942</v>
-      </c>
-      <c r="S4">
-        <v>0.3039081579394173</v>
-      </c>
-      <c r="T4">
-        <v>0.225443475773544</v>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>9.0545855</v>
+      </c>
+      <c r="N5">
+        <v>18.109171</v>
+      </c>
+      <c r="O5">
+        <v>0.1382476763167411</v>
+      </c>
+      <c r="P5">
+        <v>0.09661749912641458</v>
+      </c>
+      <c r="Q5">
+        <v>0.31309398471175</v>
+      </c>
+      <c r="R5">
+        <v>1.252375938847</v>
+      </c>
+      <c r="S5">
+        <v>0.1382476763167411</v>
+      </c>
+      <c r="T5">
+        <v>0.09661749912641458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.0345785</v>
+      </c>
+      <c r="H6">
+        <v>0.069157</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.01427366666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.042821</v>
+      </c>
+      <c r="O6">
+        <v>0.0002179339130638713</v>
+      </c>
+      <c r="P6">
+        <v>0.0002284620278914037</v>
+      </c>
+      <c r="Q6">
+        <v>0.0004935619828333333</v>
+      </c>
+      <c r="R6">
+        <v>0.002961371897</v>
+      </c>
+      <c r="S6">
+        <v>0.0002179339130638713</v>
+      </c>
+      <c r="T6">
+        <v>0.0002284620278914037</v>
       </c>
     </row>
   </sheetData>
